--- a/Geen Code/burndowneind.xlsx
+++ b/Geen Code/burndowneind.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Media\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F63B443-9992-4E64-8BCA-649F1A6CA5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A71CD2C-72F8-4AE6-AFD1-08F09348E53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
   <sheets>
     <sheet name="BurndownChart" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>Taak</t>
   </si>
@@ -90,6 +90,39 @@
     <t>US 2</t>
   </si>
   <si>
+    <t>US 4</t>
+  </si>
+  <si>
+    <t>US 5</t>
+  </si>
+  <si>
+    <t>US 6</t>
+  </si>
+  <si>
+    <t>US 7</t>
+  </si>
+  <si>
+    <t>US 8</t>
+  </si>
+  <si>
+    <t>US 9</t>
+  </si>
+  <si>
+    <t>US 10</t>
+  </si>
+  <si>
+    <t>US 11</t>
+  </si>
+  <si>
+    <t>US 12</t>
+  </si>
+  <si>
+    <t>US 13</t>
+  </si>
+  <si>
+    <t>US 14</t>
+  </si>
+  <si>
     <t>ERD</t>
   </si>
   <si>
@@ -105,65 +138,53 @@
     <t>Usecase diagram</t>
   </si>
   <si>
-    <t xml:space="preserve"> hoofdpagina maken</t>
-  </si>
-  <si>
-    <t>class-diagram maken</t>
-  </si>
-  <si>
-    <t>acceptatietest. Maken</t>
-  </si>
-  <si>
-    <t>wireframe maken</t>
-  </si>
-  <si>
-    <t> subpagina maken</t>
-  </si>
-  <si>
-    <t>maken PHPUNITest</t>
-  </si>
-  <si>
-    <t>filmpje</t>
-  </si>
-  <si>
-    <t>acceptatietest maken</t>
-  </si>
-  <si>
-    <t>class-diagram uitbreiden</t>
-  </si>
-  <si>
-    <t>PHP pagina van wireframes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wireframe voor US </t>
-  </si>
-  <si>
-    <t>US 3 en 4</t>
-  </si>
-  <si>
-    <t>US 5 6 en 7</t>
-  </si>
-  <si>
-    <t>PHPUNIT-testen</t>
-  </si>
-  <si>
-    <t>US 8 9 10 en 11</t>
-  </si>
-  <si>
-    <t> filmpje maken</t>
-  </si>
-  <si>
-    <t>US 12 13 en 14</t>
-  </si>
-  <si>
-    <t>filmpje maken</t>
+    <t>insert klant</t>
+  </si>
+  <si>
+    <t>us 3</t>
+  </si>
+  <si>
+    <t>product aanmaken</t>
+  </si>
+  <si>
+    <t>verkoop orders inzien</t>
+  </si>
+  <si>
+    <t>producten bekijken</t>
+  </si>
+  <si>
+    <t>verkoop order plaatsen</t>
+  </si>
+  <si>
+    <t>inkoop order maken</t>
+  </si>
+  <si>
+    <t>order bijwerken</t>
+  </si>
+  <si>
+    <t>klant zoeken</t>
+  </si>
+  <si>
+    <t>gegevens verwijderen</t>
+  </si>
+  <si>
+    <t>order verwijderen</t>
+  </si>
+  <si>
+    <t>producten bijwerken</t>
+  </si>
+  <si>
+    <t>klant gegevens bijwerken</t>
+  </si>
+  <si>
+    <t>verkooporders bijwerken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,12 +197,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -384,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -436,10 +451,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,7 +567,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$38</c:f>
+              <c:f>BurndownChart!$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -639,33 +650,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$38:$I$38</c:f>
+              <c:f>BurndownChart!$B$37:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>88</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -682,7 +693,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$39</c:f>
+              <c:f>BurndownChart!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -765,30 +776,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$39:$I$39</c:f>
+              <c:f>BurndownChart!$B$38:$I$38</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>88</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.428571428571431</c:v>
+                  <c:v>79.714285714285708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.857142857142861</c:v>
+                  <c:v>66.428571428571416</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.285714285714292</c:v>
+                  <c:v>53.142857142857132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.714285714285722</c:v>
+                  <c:v>39.857142857142847</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.142857142857153</c:v>
+                  <c:v>26.571428571428562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.571428571428582</c:v>
+                  <c:v>13.285714285714276</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1597,7 +1608,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>44449</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1943,15 +1954,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
     <col min="3" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2019,8 +2030,8 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
+      <c r="C3" s="2">
+        <v>2</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2031,13 +2042,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
+      <c r="C4" s="2">
+        <v>2</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2053,8 +2064,8 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
+      <c r="C5" s="2">
+        <v>2</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2070,8 +2081,8 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
+      <c r="C6" s="2">
+        <v>2</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2088,8 +2099,8 @@
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
+      <c r="D7" s="2">
+        <v>2</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2099,14 +2110,14 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
+      <c r="D8" s="2">
+        <v>3</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2116,14 +2127,14 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
+      <c r="D9" s="2">
+        <v>2</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2133,14 +2144,14 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
+      <c r="D10" s="2">
+        <v>2</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2158,7 +2169,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2166,8 +2177,8 @@
       <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>25</v>
+      <c r="A12" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -2176,49 +2187,49 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>24</v>
+      <c r="A13" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>23</v>
+      <c r="A14" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
-        <v>22</v>
+      <c r="A15" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -2228,14 +2239,14 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>26</v>
+      <c r="A16" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -2245,17 +2256,17 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
-        <v>27</v>
+      <c r="A17" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2263,13 +2274,13 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -2280,13 +2291,13 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
@@ -2297,16 +2308,16 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
-        <v>32</v>
+      <c r="A20" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2314,13 +2325,13 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -2332,15 +2343,15 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="22" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
-        <v>30</v>
+      <c r="A22" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2349,15 +2360,15 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="22" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
-        <v>31</v>
+      <c r="A23" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -2366,15 +2377,15 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="25" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B24" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -2383,15 +2394,15 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="25" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
-        <v>25</v>
+      <c r="A25" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="B25" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -2399,13 +2410,13 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
-        <v>30</v>
+      <c r="A26" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="B26" s="5">
         <v>3</v>
@@ -2416,22 +2427,22 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
-        <v>35</v>
+      <c r="A27" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="B27" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -2439,24 +2450,24 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B28" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
-        <v>37</v>
+      <c r="A29" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="B29" s="5">
         <v>2</v>
@@ -2467,13 +2478,13 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B30" s="5">
         <v>2</v>
@@ -2484,47 +2495,47 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B32" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
-        <v>37</v>
+      <c r="A33" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="B33" s="5">
         <v>2</v>
@@ -2532,7 +2543,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2541,7 +2552,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B34" s="5">
         <v>2</v>
@@ -2549,7 +2560,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -2557,8 +2568,8 @@
       <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="26" t="s">
-        <v>29</v>
+      <c r="A35" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="B35" s="5">
         <v>2</v>
@@ -2570,12 +2581,12 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="B36" s="5">
         <v>2</v>
@@ -2586,95 +2597,80 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="24" t="s">
+      <c r="I36" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="5">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="8">
-        <f>SUM(B3:B37)</f>
-        <v>88</v>
-      </c>
-      <c r="C38" s="9">
-        <f t="shared" ref="C38:I38" si="0">B$38-SUM(C3:C37)</f>
-        <v>88</v>
-      </c>
-      <c r="D38" s="9">
+      <c r="B37" s="8">
+        <f>SUM(B3:B36)</f>
+        <v>93</v>
+      </c>
+      <c r="C37" s="9">
+        <f t="shared" ref="C37:I37" si="0">B$37-SUM(C3:C36)</f>
+        <v>85</v>
+      </c>
+      <c r="D37" s="9">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="E38" s="9">
+        <v>76</v>
+      </c>
+      <c r="E37" s="9">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="F38" s="9">
+        <v>76</v>
+      </c>
+      <c r="F37" s="9">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="G38" s="9">
+        <v>76</v>
+      </c>
+      <c r="G37" s="9">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="H38" s="9">
+        <v>76</v>
+      </c>
+      <c r="H37" s="9">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="I38" s="10">
+        <v>76</v>
+      </c>
+      <c r="I37" s="10">
         <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="12">
-        <f>B38</f>
-        <v>88</v>
-      </c>
-      <c r="C39" s="13">
-        <f t="shared" ref="C39:I39" si="1">B$39-$B$39/COUNT($C$1:$I$1)</f>
-        <v>75.428571428571431</v>
-      </c>
-      <c r="D39" s="13">
+      <c r="B38" s="12">
+        <f>B37</f>
+        <v>93</v>
+      </c>
+      <c r="C38" s="13">
+        <f t="shared" ref="C38:I38" si="1">B$38-$B$38/COUNT($C$1:$I$1)</f>
+        <v>79.714285714285708</v>
+      </c>
+      <c r="D38" s="13">
         <f t="shared" si="1"/>
-        <v>62.857142857142861</v>
-      </c>
-      <c r="E39" s="13">
+        <v>66.428571428571416</v>
+      </c>
+      <c r="E38" s="13">
         <f t="shared" si="1"/>
-        <v>50.285714285714292</v>
-      </c>
-      <c r="F39" s="13">
+        <v>53.142857142857132</v>
+      </c>
+      <c r="F38" s="13">
         <f t="shared" si="1"/>
-        <v>37.714285714285722</v>
-      </c>
-      <c r="G39" s="13">
+        <v>39.857142857142847</v>
+      </c>
+      <c r="G38" s="13">
         <f t="shared" si="1"/>
-        <v>25.142857142857153</v>
-      </c>
-      <c r="H39" s="13">
+        <v>26.571428571428562</v>
+      </c>
+      <c r="H38" s="13">
         <f t="shared" si="1"/>
-        <v>12.571428571428582</v>
-      </c>
-      <c r="I39" s="14">
+        <v>13.285714285714276</v>
+      </c>
+      <c r="I38" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
